--- a/Ressources/Liste de course/03 2025 - Liste de course.xlsx
+++ b/Ressources/Liste de course/03 2025 - Liste de course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniren1-my.sharepoint.com/personal/alexandre_bloino_etudiant_univ-rennes_fr/Documents/1 - ESIR/S8/PROTEC/Liste de course/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\programme-spirob\Ressources\Liste de course\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="203" documentId="11_AD4D9D64A577C15A4A541864201D76E05BDEDD8A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8BC36FE-443C-451C-8354-DC151AE33D92}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98EB148-351E-4EA2-B1E4-6458CBB40B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>Désignation du produit</t>
   </si>
@@ -119,21 +119,6 @@
   <si>
     <t>UHMWPE ficelle 0.5mm
 Fil de pêche</t>
-  </si>
-  <si>
-    <t>https://www.gotronic.fr/cat-servomoteurs-1084.htm</t>
-  </si>
-  <si>
-    <t>https://www.gotronic.fr/art-module-encodeur-rotatif-gt055-28502.htm</t>
-  </si>
-  <si>
-    <t>https://www.gotronic.fr/art-module-encodeur-rotatif-wpi435-35621.htm</t>
-  </si>
-  <si>
-    <t>encodeur</t>
-  </si>
-  <si>
-    <t>20 par tour</t>
   </si>
 </sst>
 </file>
@@ -241,6 +226,18 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -264,18 +261,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -297,21 +282,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD1A7CBC-1949-4317-9BD7-23738C9C44CD}" name="Liste_de_course" displayName="Liste_de_course" ref="A1:J8" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD1A7CBC-1949-4317-9BD7-23738C9C44CD}" name="Liste_de_course" displayName="Liste_de_course" ref="A1:J8" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:J8" xr:uid="{AD1A7CBC-1949-4317-9BD7-23738C9C44CD}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E88EC87F-7044-4A13-9E49-ADB2FFAA2541}" name="Désignation du produit" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8B404450-A6A6-4CE3-A1D3-A7E5F7C50DF1}" name="Réf fournisseur" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4DC2D433-E0EE-4093-A465-A3CF0F773AF4}" name="Réf constructeur" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{70EBEB96-80BF-426D-AFFA-EA679CD8B46E}" name="Fournisseur" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{ADDCA618-0850-4DE3-800A-4E2655B9FFCD}" name="Lien" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{F2F1AE03-E2DC-4E64-BF3F-8B8B910D2E4F}" name="Prix € HT Unitaire" dataDxfId="4" dataCellStyle="Monétaire"/>
-    <tableColumn id="7" xr3:uid="{A808E4B7-1FD4-4FF1-8BFD-4B210EDED7BE}" name="Prix € TTC Unitaire" dataDxfId="3" dataCellStyle="Monétaire"/>
-    <tableColumn id="8" xr3:uid="{7B381E8A-5A76-4039-8AF9-D4DDEF35E43D}" name="QTE" dataDxfId="2" dataCellStyle="Monétaire"/>
-    <tableColumn id="9" xr3:uid="{751C4D9E-BFC1-459E-8703-C91C6EF9E0E3}" name="Total € HT" dataDxfId="1" dataCellStyle="Monétaire">
+    <tableColumn id="1" xr3:uid="{E88EC87F-7044-4A13-9E49-ADB2FFAA2541}" name="Désignation du produit" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{8B404450-A6A6-4CE3-A1D3-A7E5F7C50DF1}" name="Réf fournisseur" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{4DC2D433-E0EE-4093-A465-A3CF0F773AF4}" name="Réf constructeur" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{70EBEB96-80BF-426D-AFFA-EA679CD8B46E}" name="Fournisseur" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{ADDCA618-0850-4DE3-800A-4E2655B9FFCD}" name="Lien" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{F2F1AE03-E2DC-4E64-BF3F-8B8B910D2E4F}" name="Prix € HT Unitaire" dataDxfId="8" dataCellStyle="Monétaire"/>
+    <tableColumn id="7" xr3:uid="{A808E4B7-1FD4-4FF1-8BFD-4B210EDED7BE}" name="Prix € TTC Unitaire" dataDxfId="7" dataCellStyle="Monétaire"/>
+    <tableColumn id="8" xr3:uid="{7B381E8A-5A76-4039-8AF9-D4DDEF35E43D}" name="QTE" dataDxfId="6" dataCellStyle="Monétaire"/>
+    <tableColumn id="9" xr3:uid="{751C4D9E-BFC1-459E-8703-C91C6EF9E0E3}" name="Total € HT" dataDxfId="5" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Liste_de_course[[#This Row],[Prix € HT Unitaire]]*Liste_de_course[[#This Row],[QTE]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{FFEFDCA9-A52F-4BF2-B03C-851BAEA6C4DB}" name="Total € TTC" dataDxfId="0" dataCellStyle="Monétaire">
+    <tableColumn id="10" xr3:uid="{FFEFDCA9-A52F-4BF2-B03C-851BAEA6C4DB}" name="Total € TTC" dataDxfId="4" dataCellStyle="Monétaire">
       <calculatedColumnFormula>Liste_de_course[[#This Row],[Prix € TTC Unitaire]]*Liste_de_course[[#This Row],[QTE]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -320,13 +305,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50EB13C2-0242-46F4-97BE-CEE71C93083E}" name="Total_liste_de_crouse" displayName="Total_liste_de_crouse" ref="L2:M3" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{50EB13C2-0242-46F4-97BE-CEE71C93083E}" name="Total_liste_de_crouse" displayName="Total_liste_de_crouse" ref="L2:M3" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="L2:M3" xr:uid="{50EB13C2-0242-46F4-97BE-CEE71C93083E}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{97AC9F3A-BAE8-4253-BB63-493B2B2396D8}" name="Total € HT" dataDxfId="13">
+    <tableColumn id="1" xr3:uid="{97AC9F3A-BAE8-4253-BB63-493B2B2396D8}" name="Total € HT" dataDxfId="1">
       <calculatedColumnFormula>SUM(Liste_de_course[Total € HT])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{0C6AAF40-8561-44ED-977A-B2A98788FA5E}" name="Total € TTC" dataDxfId="12">
+    <tableColumn id="2" xr3:uid="{0C6AAF40-8561-44ED-977A-B2A98788FA5E}" name="Total € TTC" dataDxfId="0">
       <calculatedColumnFormula>SUM(Liste_de_course[Total € TTC])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -600,29 +585,29 @@
   <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="40.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="24.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" style="1"/>
+    <col min="12" max="12" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -654,7 +639,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -691,7 +676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -730,7 +715,7 @@
         <v>128.94999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
@@ -766,7 +751,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -797,7 +782,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
@@ -828,7 +813,7 @@
         <v>29.3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
@@ -859,7 +844,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -875,31 +860,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E25" s="5" t="s">
-        <v>28</v>
-      </c>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E15" s="9"/>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -907,18 +880,15 @@
     <hyperlink ref="E6" r:id="rId1" xr:uid="{F3B4F95C-4BC3-46E4-BB24-DACC0D38E3E1}"/>
     <hyperlink ref="E2" r:id="rId2" xr:uid="{C77D4211-413F-4A5B-84EE-CEF33B28A0B6}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{88E9075A-CB93-4088-B882-5716175F54AC}"/>
-    <hyperlink ref="E25" r:id="rId4" xr:uid="{7F085959-B906-4D5A-A1B1-37ED46F1B8BC}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{0B292DE8-1893-48E4-A6E5-F4A45B47D422}"/>
-    <hyperlink ref="E4" r:id="rId6" xr:uid="{D7E9BD4D-C817-4158-9832-416407F9E964}"/>
-    <hyperlink ref="E7" r:id="rId7" xr:uid="{FD64612A-59B4-4D0F-B647-D1A88DF34A21}"/>
-    <hyperlink ref="E14" r:id="rId8" xr:uid="{17DA05B3-6555-43E2-866B-89DEF2E27962}"/>
-    <hyperlink ref="E15" r:id="rId9" xr:uid="{EC69FF24-10DA-4975-B557-79BB88059C60}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{0B292DE8-1893-48E4-A6E5-F4A45B47D422}"/>
+    <hyperlink ref="E4" r:id="rId5" xr:uid="{D7E9BD4D-C817-4158-9832-416407F9E964}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{FD64612A-59B4-4D0F-B647-D1A88DF34A21}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="2">
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>